--- a/Code/Results/Cases/Case_2_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.56978857369926</v>
+        <v>24.1139780380614</v>
       </c>
       <c r="C2">
-        <v>18.56928091706352</v>
+        <v>11.45377727834326</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.089085504230776</v>
+        <v>10.64562346770988</v>
       </c>
       <c r="F2">
-        <v>36.79761425331007</v>
+        <v>46.03821909381547</v>
       </c>
       <c r="G2">
-        <v>2.090656190003548</v>
+        <v>3.723211791460829</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.51177880861366</v>
+        <v>32.19702939493263</v>
       </c>
       <c r="J2">
-        <v>5.513359206582749</v>
+        <v>9.456156784107938</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.919064660102612</v>
+        <v>12.37332449012146</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.89412884135588</v>
+        <v>20.00034599852896</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.88466425258306</v>
+        <v>23.71814818957691</v>
       </c>
       <c r="C3">
-        <v>17.21221711716596</v>
+        <v>10.93222397925131</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.007451730122954</v>
+        <v>10.63468244850968</v>
       </c>
       <c r="F3">
-        <v>35.52535282042933</v>
+        <v>45.94691703261083</v>
       </c>
       <c r="G3">
-        <v>2.102544106586936</v>
+        <v>3.727393897843381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.07545883536683</v>
+        <v>32.22735143633449</v>
       </c>
       <c r="J3">
-        <v>5.614606246360331</v>
+        <v>9.486395568345515</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.706618771914335</v>
+        <v>12.36923263810345</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.18193485829629</v>
+        <v>20.07548667740893</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.81178683917915</v>
+        <v>23.4786032000553</v>
       </c>
       <c r="C4">
-        <v>16.33977835498985</v>
+        <v>10.60273340670899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.958413304342406</v>
+        <v>10.62791673532077</v>
       </c>
       <c r="F4">
-        <v>34.76077717111823</v>
+        <v>45.90278409889217</v>
       </c>
       <c r="G4">
-        <v>2.109998755819587</v>
+        <v>3.730093802706363</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.83064682255474</v>
+        <v>32.2538129472429</v>
       </c>
       <c r="J4">
-        <v>5.678061634047019</v>
+        <v>9.5058727764683</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.577489935019645</v>
+        <v>12.36861842807021</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.36130460743266</v>
+        <v>20.1236442335587</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.36516298239877</v>
+        <v>23.38199720109952</v>
       </c>
       <c r="C5">
-        <v>15.9742049082622</v>
+        <v>10.46635368399711</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.93865155574686</v>
+        <v>10.62514705966246</v>
       </c>
       <c r="F5">
-        <v>34.45357530974309</v>
+        <v>45.88780398422311</v>
       </c>
       <c r="G5">
-        <v>2.113078796183852</v>
+        <v>3.731227378044284</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.73648703827057</v>
+        <v>32.26656075132582</v>
       </c>
       <c r="J5">
-        <v>5.704259148771039</v>
+        <v>9.51403951036073</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.525250322620621</v>
+        <v>12.36884678850422</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.43511931402182</v>
+        <v>20.14377853243046</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.29043999683471</v>
+        <v>23.36602069845487</v>
       </c>
       <c r="C6">
-        <v>15.91288964318147</v>
+        <v>10.44358743993367</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.935382132037969</v>
+        <v>10.62468638055327</v>
       </c>
       <c r="F6">
-        <v>34.40283469883656</v>
+        <v>45.88549810349035</v>
       </c>
       <c r="G6">
-        <v>2.113592870591188</v>
+        <v>3.731417624994361</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.72118423233576</v>
+        <v>32.26879592226473</v>
       </c>
       <c r="J6">
-        <v>5.708630120832585</v>
+        <v>9.515409478057943</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.516600568656176</v>
+        <v>12.36891365265338</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.44742115832755</v>
+        <v>20.14715264748376</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.80580132686848</v>
+        <v>23.47729607354493</v>
       </c>
       <c r="C7">
-        <v>16.33488902508512</v>
+        <v>10.60090237527595</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.95814595619749</v>
+        <v>10.6278794341646</v>
       </c>
       <c r="F7">
-        <v>34.75661617417376</v>
+        <v>45.90256990250485</v>
       </c>
       <c r="G7">
-        <v>2.110040119460864</v>
+        <v>3.730108955326628</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.82935453672287</v>
+        <v>32.25397692545194</v>
       </c>
       <c r="J7">
-        <v>5.678413551338511</v>
+        <v>9.505981985345844</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.576783798964863</v>
+        <v>12.36861956812639</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.36229711561604</v>
+        <v>20.12391370602229</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.99677213869473</v>
+        <v>23.97684938019882</v>
       </c>
       <c r="C8">
-        <v>18.10937899310517</v>
+        <v>11.27598831122764</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.060680602181575</v>
+        <v>10.64186060640893</v>
       </c>
       <c r="F8">
-        <v>36.35560169803554</v>
+        <v>46.00426676357151</v>
       </c>
       <c r="G8">
-        <v>2.094724853735007</v>
+        <v>3.724626448651502</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.35642247984496</v>
+        <v>32.2058520094397</v>
       </c>
       <c r="J8">
-        <v>5.548010561192907</v>
+        <v>9.466394551159755</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.845570093338564</v>
+        <v>12.37152050127219</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.99284552299703</v>
+        <v>20.0258360029787</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.0791481691533</v>
+        <v>24.97841889333905</v>
       </c>
       <c r="C9">
-        <v>21.2878847319796</v>
+        <v>12.5182340349899</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.272968851759016</v>
+        <v>10.66892374169393</v>
       </c>
       <c r="F9">
-        <v>39.61630802873698</v>
+        <v>46.29796884992869</v>
       </c>
       <c r="G9">
-        <v>2.065768233841904</v>
+        <v>3.714917248070037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.58223379853679</v>
+        <v>32.17403259750148</v>
       </c>
       <c r="J9">
-        <v>5.301842692117394</v>
+        <v>9.395957182264537</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.381081230782327</v>
+        <v>12.39220570829953</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.2869126239957</v>
+        <v>19.84946880913529</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.0010535796537</v>
+        <v>25.71995708805679</v>
       </c>
       <c r="C10">
-        <v>23.4548524702357</v>
+        <v>13.37200240309243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.439967870402223</v>
+        <v>10.68862895808964</v>
       </c>
       <c r="F10">
-        <v>42.08349153133504</v>
+        <v>46.57055904465074</v>
       </c>
       <c r="G10">
-        <v>2.044904471360956</v>
+        <v>3.708410751759917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.61288453816199</v>
+        <v>32.18917489952731</v>
       </c>
       <c r="J10">
-        <v>5.125864670093744</v>
+        <v>9.348548838902056</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.777438995103626</v>
+        <v>12.4164492717264</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.77586738350721</v>
+        <v>19.72952030714517</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.28221907871134</v>
+        <v>26.05695216065572</v>
       </c>
       <c r="C11">
-        <v>24.40811412294131</v>
+        <v>13.74612088775578</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.519460274078686</v>
+        <v>10.69756300992845</v>
       </c>
       <c r="F11">
-        <v>43.22186185325199</v>
+        <v>46.70669954893779</v>
       </c>
       <c r="G11">
-        <v>2.035438428236668</v>
+        <v>3.705585104104326</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.11307412091636</v>
+        <v>32.20449189790898</v>
       </c>
       <c r="J11">
-        <v>5.046671187359002</v>
+        <v>9.327915199933766</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.958075854440771</v>
+        <v>12.4294182295278</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.54416036355412</v>
+        <v>19.67702138546051</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.76081553431259</v>
+        <v>26.18438829840646</v>
       </c>
       <c r="C12">
-        <v>24.76480092125306</v>
+        <v>13.8856393477065</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.550181108809595</v>
+        <v>10.70094244754938</v>
       </c>
       <c r="F12">
-        <v>43.65539076880828</v>
+        <v>46.75997587857814</v>
       </c>
       <c r="G12">
-        <v>2.031851293466361</v>
+        <v>3.704534263360013</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.30728158251178</v>
+        <v>32.21150763305528</v>
       </c>
       <c r="J12">
-        <v>5.016791746512893</v>
+        <v>9.320235216153803</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.026512446414051</v>
+        <v>12.43460584095427</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.45645423522273</v>
+        <v>19.65743693120093</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.65802638130096</v>
+        <v>26.15695249296643</v>
       </c>
       <c r="C13">
-        <v>24.68816631267518</v>
+        <v>13.8556886997526</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.543535323204475</v>
+        <v>10.70021477964989</v>
       </c>
       <c r="F13">
-        <v>43.56191000497528</v>
+        <v>46.74842563084878</v>
       </c>
       <c r="G13">
-        <v>2.032624067786082</v>
+        <v>3.704759730091098</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.26523711720014</v>
+        <v>32.20994256343127</v>
       </c>
       <c r="J13">
-        <v>5.023222160151839</v>
+        <v>9.321883308646894</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.011772030578479</v>
+        <v>12.43347633808815</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.47534292258246</v>
+        <v>19.66164166209346</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.32172258595826</v>
+        <v>26.06744066590744</v>
       </c>
       <c r="C14">
-        <v>24.43754261934096</v>
+        <v>13.75764280642232</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.521974586496716</v>
+        <v>10.6978411087839</v>
       </c>
       <c r="F14">
-        <v>43.25747816510182</v>
+        <v>46.71104823467183</v>
       </c>
       <c r="G14">
-        <v>2.035143401913249</v>
+        <v>3.705498267312821</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.12895374069109</v>
+        <v>32.20504470941432</v>
       </c>
       <c r="J14">
-        <v>5.044210870290947</v>
+        <v>9.3272806902895</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.963705549258211</v>
+        <v>12.42983948992279</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.53694443745119</v>
+        <v>19.67540424122527</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.11488493344108</v>
+        <v>26.01258536087925</v>
       </c>
       <c r="C15">
-        <v>24.28348155040694</v>
+        <v>13.69730388576775</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.508852235884929</v>
+        <v>10.69638670412023</v>
       </c>
       <c r="F15">
-        <v>43.07133044043584</v>
+        <v>46.68837715288691</v>
       </c>
       <c r="G15">
-        <v>2.036686037581007</v>
+        <v>3.705953135553634</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.04611022281072</v>
+        <v>32.20220301544158</v>
       </c>
       <c r="J15">
-        <v>5.05708091677015</v>
+        <v>9.330604114335166</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.934267542464351</v>
+        <v>12.42764775311937</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.57467960857088</v>
+        <v>19.683872692851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.91638877309452</v>
+        <v>25.69791584478111</v>
       </c>
       <c r="C16">
-        <v>23.39193194713747</v>
+        <v>13.34725683821348</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.434852936594734</v>
+        <v>10.68804454632974</v>
       </c>
       <c r="F16">
-        <v>42.00942925328841</v>
+        <v>46.5619043253018</v>
       </c>
       <c r="G16">
-        <v>2.045523096575726</v>
+        <v>3.708598103976157</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.58085045778091</v>
+        <v>32.18834382501447</v>
       </c>
       <c r="J16">
-        <v>5.131056199834131</v>
+        <v>9.349916012734564</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.765639153758865</v>
+        <v>12.41564055856959</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.79101918598148</v>
+        <v>19.73299269538806</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.16908173163441</v>
+        <v>25.50469771891508</v>
       </c>
       <c r="C17">
-        <v>22.83692563710979</v>
+        <v>13.12878366894115</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.390433525322166</v>
+        <v>10.68291966538573</v>
       </c>
       <c r="F17">
-        <v>41.3621670669628</v>
+        <v>46.4874110038168</v>
       </c>
       <c r="G17">
-        <v>2.050946637458497</v>
+        <v>3.710254986198379</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.30364940969459</v>
+        <v>32.18200324419443</v>
       </c>
       <c r="J17">
-        <v>5.176647266101504</v>
+        <v>9.362001691467176</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.66226248947191</v>
+        <v>12.40876982173402</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.92388178897339</v>
+        <v>19.76365445829607</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.73470554505049</v>
+        <v>25.39353969711454</v>
       </c>
       <c r="C18">
-        <v>22.51461570863943</v>
+        <v>13.00178588684921</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.365208645161892</v>
+        <v>10.67996911323885</v>
       </c>
       <c r="F18">
-        <v>40.99137373270946</v>
+        <v>46.44570841969215</v>
       </c>
       <c r="G18">
-        <v>2.054068880876865</v>
+        <v>3.711220619135374</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.147141286242</v>
+        <v>32.17914951233087</v>
       </c>
       <c r="J18">
-        <v>5.202951753663769</v>
+        <v>9.369040874625489</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.602834423905845</v>
+        <v>12.40500076021094</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.00037799237193</v>
+        <v>19.7814848602908</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.58684288868809</v>
+        <v>25.35590336093206</v>
       </c>
       <c r="C19">
-        <v>22.40494647221314</v>
+        <v>12.95856019612439</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.356720450376467</v>
+        <v>10.67896959790783</v>
       </c>
       <c r="F19">
-        <v>40.86608339081859</v>
+        <v>46.43178576523066</v>
       </c>
       <c r="G19">
-        <v>2.055126667470836</v>
+        <v>3.711549740296408</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.09464549102317</v>
+        <v>32.17831939847718</v>
       </c>
       <c r="J19">
-        <v>5.211872493410914</v>
+        <v>9.371439322342779</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.582719116459899</v>
+        <v>12.40375609005607</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.02629375839664</v>
+        <v>19.78755538725719</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.24910186822592</v>
+        <v>25.52526955524222</v>
       </c>
       <c r="C20">
-        <v>22.89632369310133</v>
+        <v>13.15217974951671</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.395127760586412</v>
+        <v>10.68346550889824</v>
       </c>
       <c r="F20">
-        <v>41.43091379379663</v>
+        <v>46.4952226993057</v>
       </c>
       <c r="G20">
-        <v>2.050369047777587</v>
+        <v>3.710077301173868</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.33285266448721</v>
+        <v>32.18259608802405</v>
       </c>
       <c r="J20">
-        <v>5.171785670477636</v>
+        <v>9.36070606554053</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.673263994412757</v>
+        <v>12.40948232119346</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.90973088268152</v>
+        <v>19.76037033438397</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.42067788753769</v>
+        <v>26.09373825136326</v>
       </c>
       <c r="C21">
-        <v>24.51127007323234</v>
+        <v>13.78650039225917</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.528289718899889</v>
+        <v>10.69853840878656</v>
       </c>
       <c r="F21">
-        <v>43.34682891575943</v>
+        <v>46.7219803170582</v>
       </c>
       <c r="G21">
-        <v>2.034403534926076</v>
+        <v>3.705280821740884</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.16885076918388</v>
+        <v>32.20645031614615</v>
       </c>
       <c r="J21">
-        <v>5.03804311267702</v>
+        <v>9.325691729201498</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.977822995376021</v>
+        <v>12.43090023570977</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.51885020267638</v>
+        <v>19.6713538224959</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.801942319913</v>
+        <v>26.46418014739242</v>
       </c>
       <c r="C22">
-        <v>25.54192694951813</v>
+        <v>14.18848580327218</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.618991555435735</v>
+        <v>10.70836817953515</v>
       </c>
       <c r="F22">
-        <v>44.61343333850964</v>
+        <v>46.88020936371918</v>
       </c>
       <c r="G22">
-        <v>2.023950772596184</v>
+        <v>3.702257728594821</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.74335045078784</v>
+        <v>32.2291263262762</v>
       </c>
       <c r="J22">
-        <v>4.951267212719839</v>
+        <v>9.303585870554141</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.177065627556543</v>
+        <v>12.44650872752574</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.26356208844327</v>
+        <v>19.6148996043372</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.06807782476763</v>
+        <v>26.26660878818429</v>
       </c>
       <c r="C23">
-        <v>24.99397519498771</v>
+        <v>13.97511888992869</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.570204183816752</v>
+        <v>10.70312358481542</v>
       </c>
       <c r="F23">
-        <v>43.93602454311306</v>
+        <v>46.79484997378407</v>
       </c>
       <c r="G23">
-        <v>2.029533556984514</v>
+        <v>3.703861032686165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.434047747385</v>
+        <v>32.21637445963469</v>
       </c>
       <c r="J23">
-        <v>4.997527459152935</v>
+        <v>9.315313184788705</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.070710009483557</v>
+        <v>12.43803167863331</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.39982348786204</v>
+        <v>19.64487305908222</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.21293955251577</v>
+        <v>25.51596924981247</v>
       </c>
       <c r="C24">
-        <v>22.8694799189267</v>
+        <v>13.14160671768611</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.393004531863538</v>
+        <v>10.6832187461426</v>
       </c>
       <c r="F24">
-        <v>41.39982927708688</v>
+        <v>46.49168752716407</v>
       </c>
       <c r="G24">
-        <v>2.050630162608633</v>
+        <v>3.710157591856181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.31964099085749</v>
+        <v>32.1823255980953</v>
       </c>
       <c r="J24">
-        <v>5.173983305301562</v>
+        <v>9.361291534640461</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.668290198595141</v>
+        <v>12.40915963617549</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.91612815385133</v>
+        <v>19.76185445581468</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95853292224801</v>
+        <v>24.70592026221225</v>
       </c>
       <c r="C25">
-        <v>20.45879019333745</v>
+        <v>12.19194566344512</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.213940608297221</v>
+        <v>10.66163646601505</v>
       </c>
       <c r="F25">
-        <v>38.72152171402642</v>
+        <v>46.20847870473785</v>
       </c>
       <c r="G25">
-        <v>2.073510140914122</v>
+        <v>3.717433159341276</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.22874734509125</v>
+        <v>32.17590041872288</v>
       </c>
       <c r="J25">
-        <v>5.367512413562166</v>
+        <v>9.414246757237915</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.235564489279486</v>
+        <v>12.38501347552746</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.4762692433506</v>
+        <v>19.89548256542346</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.1139780380614</v>
+        <v>26.56978857369928</v>
       </c>
       <c r="C2">
-        <v>11.45377727834326</v>
+        <v>18.56928091706356</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.64562346770988</v>
+        <v>6.089085504230709</v>
       </c>
       <c r="F2">
-        <v>46.03821909381547</v>
+        <v>36.79761425331007</v>
       </c>
       <c r="G2">
-        <v>3.723211791460829</v>
+        <v>2.090656190003548</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.19702939493263</v>
+        <v>23.51177880861368</v>
       </c>
       <c r="J2">
-        <v>9.456156784107938</v>
+        <v>5.51335920658269</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.37332449012146</v>
+        <v>7.919064660102553</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.00034599852896</v>
+        <v>12.89412884135588</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.71814818957691</v>
+        <v>24.88466425258306</v>
       </c>
       <c r="C3">
-        <v>10.93222397925131</v>
+        <v>17.21221711716584</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.63468244850968</v>
+        <v>6.007451730122954</v>
       </c>
       <c r="F3">
-        <v>45.94691703261083</v>
+        <v>35.52535282042935</v>
       </c>
       <c r="G3">
-        <v>3.727393897843381</v>
+        <v>2.102544106587067</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.22735143633449</v>
+        <v>23.07545883536684</v>
       </c>
       <c r="J3">
-        <v>9.486395568345515</v>
+        <v>5.614606246360365</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.36923263810345</v>
+        <v>7.70661877191435</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.07548667740893</v>
+        <v>13.1819348582963</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.4786032000553</v>
+        <v>23.81178683917918</v>
       </c>
       <c r="C4">
-        <v>10.60273340670899</v>
+        <v>16.33977835498982</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.62791673532077</v>
+        <v>5.958413304342407</v>
       </c>
       <c r="F4">
-        <v>45.90278409889217</v>
+        <v>34.76077717111831</v>
       </c>
       <c r="G4">
-        <v>3.730093802706363</v>
+        <v>2.109998755819722</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.2538129472429</v>
+        <v>22.83064682255485</v>
       </c>
       <c r="J4">
-        <v>9.5058727764683</v>
+        <v>5.678061634047022</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.36861842807021</v>
+        <v>7.577489935019675</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.1236442335587</v>
+        <v>13.36130460743269</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.38199720109952</v>
+        <v>23.36516298239876</v>
       </c>
       <c r="C5">
-        <v>10.46635368399711</v>
+        <v>15.9742049082622</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.62514705966246</v>
+        <v>5.938651555746794</v>
       </c>
       <c r="F5">
-        <v>45.88780398422311</v>
+        <v>34.45357530974307</v>
       </c>
       <c r="G5">
-        <v>3.731227378044284</v>
+        <v>2.113078796183586</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.26656075132582</v>
+        <v>22.73648703827059</v>
       </c>
       <c r="J5">
-        <v>9.51403951036073</v>
+        <v>5.704259148771074</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.36884678850422</v>
+        <v>7.525250322620569</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.14377853243046</v>
+        <v>13.43511931402192</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.36602069845487</v>
+        <v>23.29043999683473</v>
       </c>
       <c r="C6">
-        <v>10.44358743993367</v>
+        <v>15.91288964318138</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.62468638055327</v>
+        <v>5.935382132037835</v>
       </c>
       <c r="F6">
-        <v>45.88549810349035</v>
+        <v>34.40283469883663</v>
       </c>
       <c r="G6">
-        <v>3.731417624994361</v>
+        <v>2.11359287059079</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.26879592226473</v>
+        <v>22.72118423233584</v>
       </c>
       <c r="J6">
-        <v>9.515409478057943</v>
+        <v>5.708630120832551</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.36891365265338</v>
+        <v>7.51660056865608</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.14715264748376</v>
+        <v>13.44742115832765</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.47729607354493</v>
+        <v>23.80580132686849</v>
       </c>
       <c r="C7">
-        <v>10.60090237527595</v>
+        <v>16.33488902508519</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.6278794341646</v>
+        <v>5.958145956197622</v>
       </c>
       <c r="F7">
-        <v>45.90256990250485</v>
+        <v>34.75661617417376</v>
       </c>
       <c r="G7">
-        <v>3.730108955326628</v>
+        <v>2.110040119460732</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.25397692545194</v>
+        <v>22.82935453672277</v>
       </c>
       <c r="J7">
-        <v>9.505981985345844</v>
+        <v>5.678413551338386</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.36861956812639</v>
+        <v>7.576783798964912</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.12391370602229</v>
+        <v>13.36229711561595</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.97684938019882</v>
+        <v>25.99677213869476</v>
       </c>
       <c r="C8">
-        <v>11.27598831122764</v>
+        <v>18.10937899310521</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.64186060640893</v>
+        <v>6.060680602181578</v>
       </c>
       <c r="F8">
-        <v>46.00426676357151</v>
+        <v>36.35560169803569</v>
       </c>
       <c r="G8">
-        <v>3.724626448651502</v>
+        <v>2.094724853735269</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.2058520094397</v>
+        <v>23.35642247984507</v>
       </c>
       <c r="J8">
-        <v>9.466394551159755</v>
+        <v>5.548010561192939</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.37152050127219</v>
+        <v>7.845570093338545</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.0258360029787</v>
+        <v>12.99284552299707</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.97841889333905</v>
+        <v>30.07914816915332</v>
       </c>
       <c r="C9">
-        <v>12.5182340349899</v>
+        <v>21.28788473197957</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.66892374169393</v>
+        <v>6.27296885175895</v>
       </c>
       <c r="F9">
-        <v>46.29796884992869</v>
+        <v>39.616308028737</v>
       </c>
       <c r="G9">
-        <v>3.714917248070037</v>
+        <v>2.065768233841771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.17403259750148</v>
+        <v>24.58223379853677</v>
       </c>
       <c r="J9">
-        <v>9.395957182264537</v>
+        <v>5.301842692117329</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.39220570829953</v>
+        <v>8.381081230782316</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.84946880913529</v>
+        <v>12.2869126239957</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.71995708805679</v>
+        <v>33.00105357965361</v>
       </c>
       <c r="C10">
-        <v>13.37200240309243</v>
+        <v>23.45485247023561</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.68862895808964</v>
+        <v>6.43996787040209</v>
       </c>
       <c r="F10">
-        <v>46.57055904465074</v>
+        <v>42.08349153133504</v>
       </c>
       <c r="G10">
-        <v>3.708410751759917</v>
+        <v>2.044904471361094</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.18917489952731</v>
+        <v>25.61288453816202</v>
       </c>
       <c r="J10">
-        <v>9.348548838902056</v>
+        <v>5.125864670093807</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.4164492717264</v>
+        <v>8.777438995103626</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.72952030714517</v>
+        <v>11.77586738350724</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.05695216065572</v>
+        <v>34.28221907871134</v>
       </c>
       <c r="C11">
-        <v>13.74612088775578</v>
+        <v>24.40811412294116</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.69756300992845</v>
+        <v>6.519460274078284</v>
       </c>
       <c r="F11">
-        <v>46.70669954893779</v>
+        <v>43.22186185325204</v>
       </c>
       <c r="G11">
-        <v>3.705585104104326</v>
+        <v>2.035438428236672</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.20449189790898</v>
+        <v>26.11307412091649</v>
       </c>
       <c r="J11">
-        <v>9.327915199933766</v>
+        <v>5.046671187358973</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.4294182295278</v>
+        <v>8.95807585444067</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.67702138546051</v>
+        <v>11.54416036355422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.18438829840646</v>
+        <v>34.76081553431267</v>
       </c>
       <c r="C12">
-        <v>13.8856393477065</v>
+        <v>24.76480092125318</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.70094244754938</v>
+        <v>6.55018110880973</v>
       </c>
       <c r="F12">
-        <v>46.75997587857814</v>
+        <v>43.65539076880829</v>
       </c>
       <c r="G12">
-        <v>3.704534263360013</v>
+        <v>2.031851293466228</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.21150763305528</v>
+        <v>26.30728158251173</v>
       </c>
       <c r="J12">
-        <v>9.320235216153803</v>
+        <v>5.016791746512775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.43460584095427</v>
+        <v>9.026512446414021</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.65743693120093</v>
+        <v>11.45645423522267</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.15695249296643</v>
+        <v>34.65802638130102</v>
       </c>
       <c r="C13">
-        <v>13.8556886997526</v>
+        <v>24.68816631267508</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.70021477964989</v>
+        <v>6.543535323204541</v>
       </c>
       <c r="F13">
-        <v>46.74842563084878</v>
+        <v>43.5619100049753</v>
       </c>
       <c r="G13">
-        <v>3.704759730091098</v>
+        <v>2.032624067786087</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.20994256343127</v>
+        <v>26.26523711720017</v>
       </c>
       <c r="J13">
-        <v>9.321883308646894</v>
+        <v>5.023222160151877</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.43347633808815</v>
+        <v>9.01177203057852</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.66164166209346</v>
+        <v>11.4753429225825</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.06744066590744</v>
+        <v>34.32172258595842</v>
       </c>
       <c r="C14">
-        <v>13.75764280642232</v>
+        <v>24.43754261934111</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.6978411087839</v>
+        <v>6.521974586496783</v>
       </c>
       <c r="F14">
-        <v>46.71104823467183</v>
+        <v>43.25747816510185</v>
       </c>
       <c r="G14">
-        <v>3.705498267312821</v>
+        <v>2.035143401913118</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.20504470941432</v>
+        <v>26.12895374069108</v>
       </c>
       <c r="J14">
-        <v>9.3272806902895</v>
+        <v>5.044210870290834</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.42983948992279</v>
+        <v>8.96370554925819</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.67540424122527</v>
+        <v>11.53694443745109</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.01258536087925</v>
+        <v>34.11488493344102</v>
       </c>
       <c r="C15">
-        <v>13.69730388576775</v>
+        <v>24.28348155040698</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.69638670412023</v>
+        <v>6.508852235884929</v>
       </c>
       <c r="F15">
-        <v>46.68837715288691</v>
+        <v>43.07133044043576</v>
       </c>
       <c r="G15">
-        <v>3.705953135553634</v>
+        <v>2.036686037580746</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.20220301544158</v>
+        <v>26.04611022281064</v>
       </c>
       <c r="J15">
-        <v>9.330604114335166</v>
+        <v>5.057080916770204</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.42764775311937</v>
+        <v>8.934267542464365</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.683872692851</v>
+        <v>11.57467960857086</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.69791584478111</v>
+        <v>32.91638877309452</v>
       </c>
       <c r="C16">
-        <v>13.34725683821348</v>
+        <v>23.39193194713748</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.68804454632974</v>
+        <v>6.434852936594599</v>
       </c>
       <c r="F16">
-        <v>46.5619043253018</v>
+        <v>42.0094292532885</v>
       </c>
       <c r="G16">
-        <v>3.708598103976157</v>
+        <v>2.045523096575721</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.18834382501447</v>
+        <v>25.58085045778103</v>
       </c>
       <c r="J16">
-        <v>9.349916012734564</v>
+        <v>5.131056199834171</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.41564055856959</v>
+        <v>8.76563915375883</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.73299269538806</v>
+        <v>11.79101918598153</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.50469771891508</v>
+        <v>32.16908173163444</v>
       </c>
       <c r="C17">
-        <v>13.12878366894115</v>
+        <v>22.83692563710976</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.68291966538573</v>
+        <v>6.390433525322098</v>
       </c>
       <c r="F17">
-        <v>46.4874110038168</v>
+        <v>41.3621670669628</v>
       </c>
       <c r="G17">
-        <v>3.710254986198379</v>
+        <v>2.050946637458497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.18200324419443</v>
+        <v>25.30364940969462</v>
       </c>
       <c r="J17">
-        <v>9.362001691467176</v>
+        <v>5.176647266101479</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.40876982173402</v>
+        <v>8.662262489471884</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.76365445829607</v>
+        <v>11.92388178897342</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.39353969711454</v>
+        <v>31.73470554505046</v>
       </c>
       <c r="C18">
-        <v>13.00178588684921</v>
+        <v>22.51461570863945</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.67996911323885</v>
+        <v>6.365208645162025</v>
       </c>
       <c r="F18">
-        <v>46.44570841969215</v>
+        <v>40.99137373270958</v>
       </c>
       <c r="G18">
-        <v>3.711220619135374</v>
+        <v>2.054068880876863</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.17914951233087</v>
+        <v>25.14714128624212</v>
       </c>
       <c r="J18">
-        <v>9.369040874625489</v>
+        <v>5.202951753663799</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.40500076021094</v>
+        <v>8.602834423905877</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.7814848602908</v>
+        <v>12.000377992372</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.35590336093206</v>
+        <v>31.5868428886881</v>
       </c>
       <c r="C19">
-        <v>12.95856019612439</v>
+        <v>22.40494647221323</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.67896959790783</v>
+        <v>6.356720450376534</v>
       </c>
       <c r="F19">
-        <v>46.43178576523066</v>
+        <v>40.86608339081871</v>
       </c>
       <c r="G19">
-        <v>3.711549740296408</v>
+        <v>2.055126667470702</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.17831939847718</v>
+        <v>25.09464549102328</v>
       </c>
       <c r="J19">
-        <v>9.371439322342779</v>
+        <v>5.211872493410893</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.40375609005607</v>
+        <v>8.582719116459884</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.78755538725719</v>
+        <v>12.02629375839665</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.52526955524222</v>
+        <v>32.24910186822601</v>
       </c>
       <c r="C20">
-        <v>13.15217974951671</v>
+        <v>22.89632369310135</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.68346550889824</v>
+        <v>6.395127760586278</v>
       </c>
       <c r="F20">
-        <v>46.4952226993057</v>
+        <v>41.43091379379662</v>
       </c>
       <c r="G20">
-        <v>3.710077301173868</v>
+        <v>2.050369047777453</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.18259608802405</v>
+        <v>25.33285266448721</v>
       </c>
       <c r="J20">
-        <v>9.36070606554053</v>
+        <v>5.171785670477579</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.40948232119346</v>
+        <v>8.673263994412657</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.76037033438397</v>
+        <v>11.90973088268152</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.09373825136326</v>
+        <v>34.42067788753765</v>
       </c>
       <c r="C21">
-        <v>13.78650039225917</v>
+        <v>24.5112700732324</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.69853840878656</v>
+        <v>6.528289718899891</v>
       </c>
       <c r="F21">
-        <v>46.7219803170582</v>
+        <v>43.34682891575947</v>
       </c>
       <c r="G21">
-        <v>3.705280821740884</v>
+        <v>2.034403534925676</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.20645031614615</v>
+        <v>26.16885076918395</v>
       </c>
       <c r="J21">
-        <v>9.325691729201498</v>
+        <v>5.038043112677023</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.43090023570977</v>
+        <v>8.977822995375984</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.6713538224959</v>
+        <v>11.51885020267638</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.46418014739242</v>
+        <v>35.801942319913</v>
       </c>
       <c r="C22">
-        <v>14.18848580327218</v>
+        <v>25.54192694951822</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.70836817953515</v>
+        <v>6.618991555435868</v>
       </c>
       <c r="F22">
-        <v>46.88020936371918</v>
+        <v>44.61343333850969</v>
       </c>
       <c r="G22">
-        <v>3.702257728594821</v>
+        <v>2.02395077259618</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.2291263262762</v>
+        <v>26.74335045078789</v>
       </c>
       <c r="J22">
-        <v>9.303585870554141</v>
+        <v>4.951267212719871</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.44650872752574</v>
+        <v>9.177065627556551</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.6148996043372</v>
+        <v>11.26356208844327</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.26660878818429</v>
+        <v>35.06807782476759</v>
       </c>
       <c r="C23">
-        <v>13.97511888992869</v>
+        <v>24.99397519498769</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.70312358481542</v>
+        <v>6.570204183816684</v>
       </c>
       <c r="F23">
-        <v>46.79484997378407</v>
+        <v>43.93602454311307</v>
       </c>
       <c r="G23">
-        <v>3.703861032686165</v>
+        <v>2.029533556984649</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.21637445963469</v>
+        <v>26.43404774738504</v>
       </c>
       <c r="J23">
-        <v>9.315313184788705</v>
+        <v>4.997527459152995</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.43803167863331</v>
+        <v>9.07071000948352</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.64487305908222</v>
+        <v>11.39982348786213</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51596924981247</v>
+        <v>32.21293955251573</v>
       </c>
       <c r="C24">
-        <v>13.14160671768611</v>
+        <v>22.86947991892655</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.6832187461426</v>
+        <v>6.393004531863538</v>
       </c>
       <c r="F24">
-        <v>46.49168752716407</v>
+        <v>41.39982927708688</v>
       </c>
       <c r="G24">
-        <v>3.710157591856181</v>
+        <v>2.050630162608366</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.1823255980953</v>
+        <v>25.31964099085748</v>
       </c>
       <c r="J24">
-        <v>9.361291534640461</v>
+        <v>5.173983305301592</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.40915963617549</v>
+        <v>8.668290198595177</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.76185445581468</v>
+        <v>11.91612815385129</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.70592026221225</v>
+        <v>28.95853292224805</v>
       </c>
       <c r="C25">
-        <v>12.19194566344512</v>
+        <v>20.45879019333747</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.66163646601505</v>
+        <v>6.213940608297154</v>
       </c>
       <c r="F25">
-        <v>46.20847870473785</v>
+        <v>38.72152171402644</v>
       </c>
       <c r="G25">
-        <v>3.717433159341276</v>
+        <v>2.073510140914126</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.17590041872288</v>
+        <v>24.22874734509129</v>
       </c>
       <c r="J25">
-        <v>9.414246757237915</v>
+        <v>5.367512413562173</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.38501347552746</v>
+        <v>8.235564489279493</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.89548256542346</v>
+        <v>12.47626924335058</v>
       </c>
       <c r="O25">
         <v>0</v>
